--- a/Labs/Lab04-Async/Lab4Rubric-Async.xlsx
+++ b/Labs/Lab04-Async/Lab4Rubric-Async.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab05-Async\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab04-Async\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FE445C-C91B-4D9B-A6C5-F7142AEB5D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA60C910-E2DD-4B69-9D6F-BE9F748E5FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17424" yWindow="5592" windowWidth="14388" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="-23040" yWindow="6168" windowWidth="12000" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Possible</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Runs on Azure</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>Lab 5 Rubric - Async</t>
-  </si>
-  <si>
     <t>Controller Methods</t>
   </si>
   <si>
@@ -79,13 +73,25 @@
   </si>
   <si>
     <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Excellent work!</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t>Lab 4 Rubric - Async</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +123,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,11 +152,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,19 +482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A5EE8C-E354-4001-86CD-B2CD9C47B920}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.796875" customWidth="1"/>
     <col min="2" max="2" width="4.796875" customWidth="1"/>
+    <col min="3" max="3" width="8.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,12 +503,12 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -494,7 +516,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -502,7 +524,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -510,12 +532,12 @@
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -523,7 +545,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -561,10 +583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -573,104 +595,127 @@
     <col min="2" max="2" width="4.69921875" customWidth="1"/>
     <col min="3" max="3" width="7.8984375" customWidth="1"/>
     <col min="4" max="4" width="6.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="0.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -678,21 +723,45 @@
       <c r="D14">
         <v>5</v>
       </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
-        <f>SUM(C4:C14)</f>
+      <c r="C18">
+        <f>SUM(C6:C16)</f>
         <v>50</v>
       </c>
-      <c r="D16">
-        <f>SUM(D4:D14)</f>
+      <c r="D18">
+        <f>SUM(D6:D16)</f>
         <v>50</v>
       </c>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Labs/Lab04-Async/Lab4Rubric-Async.xlsx
+++ b/Labs/Lab04-Async/Lab4Rubric-Async.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab04-Async\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA60C910-E2DD-4B69-9D6F-BE9F748E5FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817875D-9DC2-43BA-9743-931A0AD8207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="6168" windowWidth="12000" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="-16176" yWindow="5316" windowWidth="16116" windowHeight="11808" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -164,6 +164,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -184,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -614,152 +617,161 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <f>SUM(C6:C16)</f>
+      <c r="C19">
+        <f>SUM(C7:C17)</f>
         <v>50</v>
       </c>
-      <c r="D18">
-        <f>SUM(D6:D16)</f>
+      <c r="D19">
+        <f>SUM(D7:D17)</f>
         <v>50</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F19" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
